--- a/Mini-Projeto/Benchmarking.xlsx
+++ b/Mini-Projeto/Benchmarking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\2020_AED\Mini-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03CA3BB-D839-4B45-BD40-424C142EDF22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DCCA1-159E-4487-BD3F-162C910C6272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7365" windowWidth="19440" windowHeight="15000" tabRatio="718" xr2:uid="{F2D90C39-6991-44E4-831C-DF89BE9926B5}"/>
+    <workbookView xWindow="20370" yWindow="-7365" windowWidth="19440" windowHeight="15000" tabRatio="718" activeTab="3" xr2:uid="{F2D90C39-6991-44E4-831C-DF89BE9926B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Listas Aleatórias" sheetId="5" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Listas Ordenadas - Desc" sheetId="10" r:id="rId3"/>
     <sheet name="Listas Quase-Ordenadas" sheetId="11" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Listas Aleatórias'!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Listas Aleatórias'!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Listas Aleatórias'!#REF!</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Listas Aleatórias'!#REF!</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Listas Aleatórias'!#REF!</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Listas Aleatórias'!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6015,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A47F8CD-DA4D-4E54-B8D6-5F1DA57A0029}">
   <dimension ref="D5:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6205,16 +6197,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>9</v>
@@ -6234,8 +6226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83E6DA2-4759-4A55-85A2-0B82640A3AC5}">
   <dimension ref="D5:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4168780F-7846-4C34-9977-055825FF64E3}">
   <dimension ref="D5:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6666,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974940FC-3649-4C3F-B141-A038F71EEF29}">
   <dimension ref="D5:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
